--- a/serumGLMresults.xlsx
+++ b/serumGLMresults.xlsx
@@ -15,195 +15,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">microRNA</t>
   </si>
   <si>
+    <t xml:space="preserve">coefficient.estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard.deviation</t>
+  </si>
+  <si>
     <t xml:space="preserve">p.value</t>
   </si>
   <si>
+    <t xml:space="preserve">hsa-let-7a-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-100-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-103a-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-106a-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-130b-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-146a-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-223-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-24-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-26b-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-30c-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-451a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-874-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-let-7i-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-1246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-141-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-146b-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-18b-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-19b-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-193a-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-194-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-200a-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-200b-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-204-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-210-3p</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsa-miR-214-3p</t>
   </si>
   <si>
-    <t xml:space="preserve">hsa-miR-1246</t>
+    <t xml:space="preserve">hsa-miR-222-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-16-5p</t>
   </si>
   <si>
     <t xml:space="preserve">hsa-miR-301a-3p</t>
   </si>
   <si>
+    <t xml:space="preserve">hsa-miR-320a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-27a-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-330-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-335-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-345-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-363-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-518e-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-574-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-708-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-191-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-23a-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-199a-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-21-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-let-7b-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-30a-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-199a-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-122-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-221-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-29a-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-31-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-34a-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-27b-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-25-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-218-5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-155-5p</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsa-miR-125b-5p</t>
   </si>
   <si>
+    <t xml:space="preserve">hsa-miR-143-3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsa-miR-148a-3p</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsa-miR-374a-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-194-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-210-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-let-7a-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-363-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-100-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-451a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-16-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-106a-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-let-7b-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-874-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-18b-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-19b-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-193a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-31-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-93-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-122-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-345-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-148a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-let-7i-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-141-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-103a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-26b-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-200a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-30c-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-29a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-335-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-223-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-143-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-25-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-574-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-708-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-34a-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-130b-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-146b-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-9-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-320a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-23a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-199a-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-200b-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-221-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-30a-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-24-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-518e-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-27a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-191-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-330-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-199a-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-218-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-222-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-146a-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-27b-3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-21-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-204-5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa-miR-155-5p</t>
   </si>
 </sst>
 </file>
@@ -542,493 +548,865 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00293604473652186</v>
+        <v>0.0619376956123737</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0355327640566751</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.082842693849401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0439732613178041</v>
+        <v>0.0748498990493597</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0439359460744149</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0899987055765173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.049412354517856</v>
+        <v>0.0194477938829513</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0194673205109321</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.318997297391423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0508666562257795</v>
+        <v>0.024558619909072</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0157314652990595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.120069798611537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0533696753510878</v>
+        <v>0.0191994942467857</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0192155020948017</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.318915167320392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0681617651570163</v>
+        <v>-0.0178605053391053</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0319939691438333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.577297707298759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0827360178248326</v>
+        <v>-0.00107255222372659</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0144489098103723</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.940900665585864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.082842693849401</v>
+        <v>-0.0149854077091237</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0178723441757069</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.402763314173781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0875911128576419</v>
+        <v>-0.00581298436524105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0269234877031637</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.829278754308866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0899987055765173</v>
+        <v>0.02754676724686</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0293369188672144</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.348868212493402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.109854331468696</v>
+        <v>0.0315581986037974</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0352163320295826</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.371258531018626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.119822965653104</v>
+        <v>0.0169826611322018</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0105748245796785</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.109854331468696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.120069798611537</v>
+        <v>-0.0633972890400957</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.042686332887797</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.139060308604121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126664097001956</v>
+        <v>0.0211572423003235</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0157342106591969</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.180248864040835</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128201776945381</v>
+        <v>0.0284678131908398</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0260911796420178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.276539673932939</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.139060308604121</v>
+        <v>-0.0700397587217792</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0345517837800413</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0439732613178041</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.146509789702209</v>
+        <v>0.0393481365273592</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0361582996489489</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.277801690456043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.167676066228933</v>
+        <v>-0.0449684917205455</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0862466891996902</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.60266644812559</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.169680719296158</v>
+        <v>0.0208257937671846</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0142876708133296</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.146509789702209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.170775811573143</v>
+        <v>0.024119344592513</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0174183267589458</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.167676066228933</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.180248864040835</v>
+        <v>0.226184889214183</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.16411884913815</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.169680719296158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.211327678386317</v>
+        <v>0.0396117045105649</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0216008374104081</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0681617651570163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>0.256175783564682</v>
+        <v>0.0523972925961621</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0582609601706711</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.369539700215781</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>0.273447659793541</v>
+        <v>0.0116343799583866</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0408484850539101</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.77607689232867</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>0.276539673932939</v>
+        <v>-0.000848016135686688</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.036623334840313</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.981549543128428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>0.277801690456043</v>
+        <v>0.0265629864503805</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0152334758456535</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0827360178248326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>0.318915167320392</v>
+        <v>0.121452628999367</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0403336584136186</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.00293604473652186</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>0.318997297391423</v>
+        <v>-0.00249816513848173</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0294590922633236</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.932503876881324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>0.348868212493402</v>
+        <v>0.0222368650560253</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.014234675604513</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.119822965653104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>0.369539700215781</v>
+        <v>0.0273890334495825</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.013854057183576</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.049412354517856</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>0.371258531018626</v>
+        <v>-0.0154888136760525</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0326121398000711</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.635345296949747</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>0.375495718275973</v>
+        <v>-0.00453886955582903</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0247519697876996</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.854689360322209</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391761437437123</v>
+        <v>-0.00352620513610985</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0259837360435724</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.892187805689826</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>0.402763314173781</v>
+        <v>-0.0226402362516781</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0263786836433715</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.391761437437123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>0.419155300593961</v>
+        <v>-0.0255286331435591</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0224187319142954</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.256175783564682</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>0.491691645878525</v>
+        <v>0.0149440995961881</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00870559164187644</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0875911128576419</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>0.523611978280561</v>
+        <v>0.035807333473885</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0233462918928185</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.126664097001956</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>0.525351790462718</v>
+        <v>-0.340416223304914</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.84244376505475</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.853600884178601</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>0.564256099739749</v>
+        <v>0.0124543648029409</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0194932904961456</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.523611978280561</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>0.577297707298759</v>
+        <v>-39.7217605507596</v>
+      </c>
+      <c r="C41" t="n">
+        <v>62.4332399458528</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.525351790462718</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>0.60266644812559</v>
+        <v>0.535532699778084</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.03870807816447</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.606717360423299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>0.606717360423299</v>
+        <v>0.00276865142013979</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0184279796696263</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.880724566724524</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>0.635345296949747</v>
+        <v>-0.0129787026727807</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0273641977655046</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.635804388403748</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>0.635804388403748</v>
+        <v>-0.00307201319411244</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0228715312967296</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.893287076462229</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>0.694082225457906</v>
+        <v>-0.00106667453520375</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0426821159178533</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.980086827637964</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>0.77607689232867</v>
+        <v>0.0326061635417788</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0213457016282285</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.128201776945381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>0.794005542837253</v>
+        <v>-0.0113708794074309</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0474162326316314</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.810722053146177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>0.810722053146177</v>
+        <v>-0.0051685787213413</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0131219934473015</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.694082225457906</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>0.829278754308866</v>
+        <v>0.0210690872187069</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0168025846625788</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.211327678386317</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>0.853600884178601</v>
+        <v>-0.00380961811049181</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0145705604423947</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.794005542837253</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>0.854689360322209</v>
+        <v>-0.0330094070565706</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0371644553859248</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.375495718275973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>0.880724566724524</v>
+        <v>-0.101847715370457</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0740908419503939</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.170775811573143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>0.892187805689826</v>
+        <v>0.0131364709950852</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.022747605668403</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.564256099739749</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>0.893287076462229</v>
+        <v>-0.00146525476144782</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0238291880534475</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.951030144311371</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>0.924785927460184</v>
+        <v>0.0113320977240637</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0164499733007662</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.491691645878525</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>0.932503876881324</v>
+        <v>0.0477014502806057</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.504641327100975</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.924785927460184</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>0.940900665585864</v>
+        <v>-0.000257349751796342</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0274587151257699</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.99253143699393</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>0.951030144311371</v>
+        <v>0.0750033088279387</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0381820550278407</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0508666562257795</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>0.980086827637964</v>
+        <v>-0.0312367144419742</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0385852097326036</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.419155300593961</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>0.981549543128428</v>
+        <v>0.0285556921215125</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.026003178298913</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.273447659793541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>0.99253143699393</v>
+        <v>0.0368731776223902</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0189739792032462</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0533696753510878</v>
       </c>
     </row>
   </sheetData>
@@ -1052,492 +1430,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
+        <v>-0.239750197290345</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0733497034679429</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.00127133931851703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B3" t="n">
+        <v>0.154846818256071</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0575636133828109</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.00774570675078351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
+        <v>-0.366802121058313</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.140874673611282</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.00990914067297293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B5" t="n">
+        <v>0.196265243357838</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0775317762311848</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0121255872398938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
+        <v>-0.336192509754425</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.139362827535377</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0167480857461316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n">
+        <v>0.176068093409489</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0768159652224941</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.0229369395517085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
+        <v>0.26218831608537</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1195207861476</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.0294063674718266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
+        <v>-0.309897264594931</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.142849722639016</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.0312262462481738</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B10" t="n">
+        <v>-0.257549315330525</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.119039728257174</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.0316781104633225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B11" t="n">
+        <v>-0.391085570978934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.183741459883535</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.0345169174478186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
+        <v>0.129265088342186</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0636371807808562</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.0435429100022108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
+        <v>-0.186576665852462</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0945973841437509</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.0499439561097029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B14" t="n">
+        <v>-0.100660985491837</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0513372686472537</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.051286378763846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
+        <v>0.174731945517617</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0896691836910182</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.0527317028640955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="n">
+        <v>-0.252914846740216</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.131917854086684</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.0566285890187797</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
+        <v>0.196504076244838</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.103071471007424</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.058013920490482</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
+        <v>0.187980168509093</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.100733937743228</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.0634832581014672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
+        <v>0.130847376571833</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0709034003814226</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.0664457709346276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
+        <v>0.0860366735266404</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0473663211380728</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.0707971578067742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
+        <v>0.0920641226088958</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0534623992345193</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.0866015158536347</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
+        <v>-0.23470036922954</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.138785589710943</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.0923675496849794</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B23" t="n">
+        <v>-0.147301351225979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.088262679828404</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.0966945701506046</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
+        <v>-0.0958366313646132</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0581950429173676</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.101158041122341</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
+        <v>-0.0962202568345291</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0584906411718557</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.101521636665129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
+        <v>0.15462090152573</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0957430706167264</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.107888723455392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
+        <v>-0.133365709878598</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0871227304880679</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.127396149228267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B28" t="n">
+        <v>0.0622454282127371</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0407946522275137</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.128625847912301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
+        <v>-0.134066136644744</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.089045011904818</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.13373983634773</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
+        <v>0.0935758940943525</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0626776057885999</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.137012583014844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
+        <v>-0.118139236819095</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0793973973528494</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.138331626012951</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B32" t="n">
+        <v>-0.167170415924854</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.113206435583134</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.141324685042575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B33" t="n">
+        <v>0.0828236113532266</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0646540070067656</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.201659770583665</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
+        <v>-0.0865192868427655</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0723330366005961</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.233057224902332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B35" t="n">
+        <v>-0.0503034091957004</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0559579210388546</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.369754587037626</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" t="n">
+        <v>-0.166414531798295</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.191095011420244</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.384876549840653</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.0818189090448794</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0949939974531216</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.390095788006554</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B38" t="n">
+        <v>0.107397454871068</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.128608343963354</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.404667646149477</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B39" t="n">
+        <v>0.0279999578753845</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0356122426628708</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.432649742007814</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B40" t="n">
+        <v>-0.0913433313153</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.146574069228544</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.533866876329564</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" t="n">
+        <v>-0.0377272342583503</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0622316361776523</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.545040215528291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B42" t="n">
+        <v>0.0318172054584974</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0526311767932193</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.546172109263199</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>-0.362687182350048</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.627883139602493</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.564157172824888</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B44" t="n">
+        <v>0.0780286001572024</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.135608822419997</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.565667951758382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B45" t="n">
+        <v>0.0591162888759775</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.11432804052051</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.60567160317471</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.0349105639995958</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.080363790531557</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.664459151910684</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.0319693738285919</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0942724568596719</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.734875772561493</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B48" t="n">
+        <v>-0.0201862955100686</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0600162388622389</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.736959917304169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B49" t="n">
+        <v>0.128089022851417</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.386326509902718</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.740569692213214</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B50" t="n">
+        <v>0.0368056119262063</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.116257804900697</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.751886188660891</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B51" t="n">
+        <v>0.125832202704718</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.448604558751315</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.779384768568186</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B52" t="n">
+        <v>0.0228008805659721</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0815988863900348</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.780204952418674</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
+        <v>0.0140103870625455</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0542129937767538</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.796337749956717</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
+        <v>0.0349143655697787</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.153790972234995</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.820635186408402</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B55" t="n">
+        <v>0.0336631031164575</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.158912884672697</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.832451425867282</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B56" t="n">
+        <v>-0.0139345712024411</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0658940029632661</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.832735196758097</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" t="n">
+        <v>-0.0471280511709154</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.22901673636326</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.837167670341415</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B58" t="n">
+        <v>-0.00675765006921335</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0358552578452353</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.85069816911611</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B59" t="n">
+        <v>0.00529993383094058</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0331161694204694</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.873009755806713</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B60" t="n">
+        <v>0.00792783303203754</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.090347145764887</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.930163873022001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n">
+        <v>0.00800806983090613</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.107111620667565</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.94047701397917</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B62" t="n">
+        <v>0.00152972386789898</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0343578285183765</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.964531481230271</v>
       </c>
     </row>
@@ -1562,237 +2312,417 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00127133931851703</v>
+        <v>-0.602075527467326</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.169503522090855</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000476291024312789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00774570675078351</v>
+        <v>-0.55734046368827</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.169837552974577</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00121694943182821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00990914067297293</v>
+        <v>0.234673118112373</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0789037111124959</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00329738325299759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0121255872398938</v>
+        <v>-0.174949038533922</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0595025480053221</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00366440921675236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0167480857461316</v>
+        <v>-0.479954391400017</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.17626565343412</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00704013623654306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0229369395517085</v>
+        <v>0.286905461119857</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.106750548878139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00779931473306698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0294063674718266</v>
+        <v>-0.348581513762024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.132251102911638</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00905005458498218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0312262462481738</v>
+        <v>-0.496333194119866</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.19036710221733</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00981190732666517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0316781104633225</v>
+        <v>-0.1366725174234</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0538400930460858</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0118908309401078</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0345169174478186</v>
+        <v>-0.287230818951665</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.119241647251046</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0169067402688392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0435429100022108</v>
+        <v>-0.27917997813089</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.117875750924727</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0188122948661254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0499439561097029</v>
+        <v>0.360041644374649</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.15845241440933</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0241304652805417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
-        <v>0.051286378763846</v>
+        <v>0.169147250037482</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.077073796578098</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0293369443776839</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0527317028640955</v>
+        <v>0.302891515893862</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.140194265835937</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0319160985880687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0566285890187797</v>
+        <v>-0.218955243222192</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.101392777451626</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0319975152315241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>0.058013920490482</v>
+        <v>-0.31790139489912</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.148303079387408</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0332669493728725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0634832581014672</v>
+        <v>0.186087132856212</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0876782278268165</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0350292966977362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0664457709346276</v>
+        <v>0.268891572262931</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.130924321292524</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0412901527120799</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0707971578067742</v>
+        <v>-0.235744777004451</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.118636969202199</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0482681502307245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0866015158536347</v>
+        <v>-0.14291120913094</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0728712116569128</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0512429235624066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0923675496849794</v>
+        <v>0.159888114677903</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0851276050023476</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0617993943402928</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0966945701506046</v>
+        <v>0.254539516158809</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.143230371823761</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.077058536138422</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B24" t="n">
-        <v>0.101158041122341</v>
+        <v>0.0621206469369208</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0362046996552863</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0877363481164776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101521636665129</v>
+        <v>-0.121135745957147</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0732338570013393</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.099669032741863</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>0.107888723455392</v>
+        <v>-0.0895277858559156</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0547775661507009</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.103742660306843</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127396149228267</v>
+        <v>-0.192811870280596</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.124019558206457</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.121593219305976</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>0.128625847912301</v>
+        <v>-0.136121715707606</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0895621605371341</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.130118255423187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>0.13373983634773</v>
+        <v>-0.117366483416046</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.078646577115502</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.137181091498189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137012583014844</v>
+        <v>-0.106493282520251</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0884184837758967</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.229842318650622</v>
       </c>
     </row>
     <row r="31">
@@ -1800,111 +2730,195 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138331626012951</v>
+        <v>-0.0617849269481421</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0532123587993905</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.246977857129285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141324685042575</v>
+        <v>0.0831121545879931</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0736664714669871</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.260570915222105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201659770583665</v>
+        <v>0.0584344688860832</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0549715837340801</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.289060061971902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B34" t="n">
-        <v>0.233057224902332</v>
+        <v>-0.201662629300875</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.191219495101605</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.292868227826358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B35" t="n">
-        <v>0.369754587037626</v>
+        <v>0.0432028863288201</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0418513337923733</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.303174827812619</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B36" t="n">
-        <v>0.384876549840653</v>
+        <v>-0.190858704306424</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.191837728035002</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.320982743753802</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B37" t="n">
-        <v>0.390095788006554</v>
+        <v>0.0596762719463216</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0642044082104449</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.353758849259172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B38" t="n">
-        <v>0.404667646149477</v>
+        <v>-0.0530845843534817</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0594718784610426</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.373138927127711</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B39" t="n">
-        <v>0.432649742007814</v>
+        <v>0.0409746577603154</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0466756027250884</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.38106765449282</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>0.533866876329564</v>
+        <v>-0.115651773460485</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.167032002920411</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.489489746726798</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>0.545040215528291</v>
+        <v>-0.0939302859423215</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.149012616330912</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.529180800415131</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B42" t="n">
-        <v>0.546172109263199</v>
+        <v>0.0595043282634652</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0962531484196459</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.537139050669566</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.564157172824888</v>
+        <v>-0.452260279241401</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.747602427750495</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.545896167747844</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.565667951758382</v>
+        <v>-0.0965398245623364</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.17721652812719</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.586525006938194</v>
       </c>
     </row>
     <row r="45">
@@ -1912,143 +2926,251 @@
         <v>28</v>
       </c>
       <c r="B45" t="n">
-        <v>0.60567160317471</v>
+        <v>-0.0224274833090894</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0416383258100411</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.590740980749989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664459151910684</v>
+        <v>-0.0165442411977498</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.031620700542837</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.601404995261886</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>0.734875772561493</v>
+        <v>-0.0634297773002455</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.124626289073672</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.61133860492021</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" t="n">
-        <v>0.736959917304169</v>
+        <v>-0.0509692839141365</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.101733500186103</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6169137965316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B49" t="n">
-        <v>0.740569692213214</v>
+        <v>0.0622585120246151</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.12719558367027</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.625042228366599</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>0.751886188660891</v>
+        <v>-0.0923698126332445</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.193316796349365</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.633300554218133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B51" t="n">
-        <v>0.779384768568186</v>
+        <v>-0.0356821903496591</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0826075763540159</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.666242092408865</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>0.780204952418674</v>
+        <v>-0.0522972107292765</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.147308865714706</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.722948790023629</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B53" t="n">
-        <v>0.796337749956717</v>
+        <v>0.0097812404846281</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0284761673046972</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.731589888385823</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820635186408402</v>
+        <v>0.122174343284234</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.359398962739981</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.734256136117598</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B55" t="n">
-        <v>0.832451425867282</v>
+        <v>-0.0311474204415297</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0956357347016847</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.744999149033041</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.832735196758097</v>
+        <v>0.0117315553462779</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0387425251832737</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.762349161729691</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B57" t="n">
-        <v>0.837167670341415</v>
+        <v>-0.0178912498734034</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0594209969606176</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.763654772301064</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0.85069816911611</v>
+        <v>0.0326454651715515</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.122021597208587</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.789328962093484</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B59" t="n">
-        <v>0.873009755806713</v>
+        <v>0.123297801680868</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.499042584020178</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.805107228920817</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B60" t="n">
-        <v>0.930163873022001</v>
+        <v>-0.00857826422910747</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0364767268143171</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.814315516644149</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B61" t="n">
-        <v>0.94047701397917</v>
+        <v>-0.0142299405378491</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0786109586496748</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.856536421347404</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B62" t="n">
-        <v>0.964531481230271</v>
+        <v>-0.000985190027174365</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0284008302607804</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.97236233537759</v>
       </c>
     </row>
   </sheetData>
@@ -2072,45 +3194,81 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00127133931851703</v>
+        <v>0.0584344688860832</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0549715837340801</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.289060061971902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00774570675078351</v>
+        <v>-0.0311474204415297</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0956357347016847</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.744999149033041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00990914067297293</v>
+        <v>-0.31790139489912</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.148303079387408</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0332669493728725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0121255872398938</v>
+        <v>0.0596762719463216</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0642044082104449</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.353758849259172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0167480857461316</v>
+        <v>-0.106493282520251</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0884184837758967</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.229842318650622</v>
       </c>
     </row>
     <row r="7">
@@ -2118,447 +3276,783 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0229369395517085</v>
+        <v>0.0622585120246151</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.12719558367027</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.625042228366599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0294063674718266</v>
+        <v>-0.0634297773002455</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.124626289073672</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.61133860492021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0312262462481738</v>
+        <v>-0.14291120913094</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0728712116569128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0512429235624066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0316781104633225</v>
+        <v>-0.1366725174234</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0538400930460858</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0118908309401078</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0345169174478186</v>
+        <v>-0.0965398245623364</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.17721652812719</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.586525006938194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0435429100022108</v>
+        <v>0.123297801680868</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.499042584020178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.805107228920817</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0499439561097029</v>
+        <v>-0.235744777004451</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.118636969202199</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0482681502307245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.051286378763846</v>
+        <v>-0.174949038533922</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0595025480053221</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00366440921675236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0527317028640955</v>
+        <v>-0.0522972107292765</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.147308865714706</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.722948790023629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0566285890187797</v>
+        <v>0.360041644374649</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.15845241440933</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0241304652805417</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B17" t="n">
-        <v>0.058013920490482</v>
+        <v>-0.348581513762024</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.132251102911638</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00905005458498218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0634832581014672</v>
+        <v>-0.496333194119866</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.19036710221733</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00981190732666517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0664457709346276</v>
+        <v>0.0831121545879931</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0736664714669871</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.260570915222105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0707971578067742</v>
+        <v>0.302891515893862</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.140194265835937</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0319160985880687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0866015158536347</v>
+        <v>0.186087132856212</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0876782278268165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0350292966977362</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0923675496849794</v>
+        <v>-0.0356821903496591</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0826075763540159</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.666242092408865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0966945701506046</v>
+        <v>-0.0224274833090894</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0416383258100411</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.590740980749989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B24" t="n">
-        <v>0.101158041122341</v>
+        <v>-0.452260279241401</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.747602427750495</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.545896167747844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101521636665129</v>
+        <v>-0.136121715707606</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0895621605371341</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.130118255423187</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>0.107888723455392</v>
+        <v>0.286905461119857</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.106750548878139</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00779931473306698</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127396149228267</v>
+        <v>-0.0617849269481421</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0532123587993905</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.246977857129285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.128625847912301</v>
+        <v>-0.0165442411977498</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.031620700542837</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.601404995261886</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.13373983634773</v>
+        <v>-0.00857826422910747</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0364767268143171</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.814315516644149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137012583014844</v>
+        <v>0.169147250037482</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.077073796578098</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0293369443776839</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138331626012951</v>
+        <v>0.0432028863288201</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0418513337923733</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.303174827812619</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141324685042575</v>
+        <v>-0.287230818951665</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.119241647251046</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0169067402688392</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201659770583665</v>
+        <v>-0.192811870280596</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.124019558206457</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.121593219305976</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B34" t="n">
-        <v>0.233057224902332</v>
+        <v>-0.0178912498734034</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0594209969606176</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.763654772301064</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>0.369754587037626</v>
+        <v>-0.121135745957147</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0732338570013393</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.099669032741863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.384876549840653</v>
+        <v>-0.201662629300875</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.191219495101605</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.292868227826358</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>0.390095788006554</v>
+        <v>0.254539516158809</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.143230371823761</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.077058536138422</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>0.404667646149477</v>
+        <v>0.0097812404846281</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0284761673046972</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.731589888385823</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.432649742007814</v>
+        <v>0.268891572262931</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.130924321292524</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0412901527120799</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B40" t="n">
-        <v>0.533866876329564</v>
+        <v>0.0409746577603154</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0466756027250884</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.38106765449282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B41" t="n">
-        <v>0.545040215528291</v>
+        <v>-0.190858704306424</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.191837728035002</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.320982743753802</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B42" t="n">
-        <v>0.546172109263199</v>
+        <v>0.0326454651715515</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.122021597208587</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.789328962093484</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B43" t="n">
-        <v>0.564157172824888</v>
+        <v>-0.55734046368827</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.169837552974577</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.00121694943182821</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.565667951758382</v>
+        <v>-0.000985190027174365</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0284008302607804</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.97236233537759</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B45" t="n">
-        <v>0.60567160317471</v>
+        <v>-0.0530845843534817</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0594718784610426</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.373138927127711</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664459151910684</v>
+        <v>-0.117366483416046</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.078646577115502</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.137181091498189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B47" t="n">
-        <v>0.734875772561493</v>
+        <v>0.234673118112373</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0789037111124959</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.00329738325299759</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" t="n">
-        <v>0.736959917304169</v>
+        <v>-0.0509692839141365</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.101733500186103</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6169137965316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B49" t="n">
-        <v>0.740569692213214</v>
+        <v>-0.602075527467326</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.169503522090855</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.000476291024312789</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B50" t="n">
-        <v>0.751886188660891</v>
+        <v>-0.0895277858559156</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0547775661507009</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.103742660306843</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>0.779384768568186</v>
+        <v>-0.27917997813089</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.117875750924727</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0188122948661254</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B52" t="n">
-        <v>0.780204952418674</v>
+        <v>0.0595043282634652</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0962531484196459</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.537139050669566</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>0.796337749956717</v>
+        <v>0.0117315553462779</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0387425251832737</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.762349161729691</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820635186408402</v>
+        <v>0.0621206469369208</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0362046996552863</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0877363481164776</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B55" t="n">
-        <v>0.832451425867282</v>
+        <v>-0.479954391400017</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.17626565343412</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.00704013623654306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B56" t="n">
-        <v>0.832735196758097</v>
+        <v>-0.0923698126332445</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.193316796349365</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.633300554218133</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.837167670341415</v>
+        <v>-0.0939302859423215</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.149012616330912</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.529180800415131</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B58" t="n">
-        <v>0.85069816911611</v>
+        <v>-0.0142299405378491</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0786109586496748</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.856536421347404</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B59" t="n">
-        <v>0.873009755806713</v>
+        <v>0.159888114677903</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0851276050023476</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0617993943402928</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B60" t="n">
-        <v>0.930163873022001</v>
+        <v>0.122174343284234</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.359398962739981</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.734256136117598</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B61" t="n">
-        <v>0.94047701397917</v>
+        <v>-0.115651773460485</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.167032002920411</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.489489746726798</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B62" t="n">
-        <v>0.964531481230271</v>
+        <v>-0.218955243222192</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.101392777451626</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0319975152315241</v>
       </c>
     </row>
   </sheetData>

--- a/serumGLMresults.xlsx
+++ b/serumGLMresults.xlsx
@@ -3203,114 +3203,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0584344688860832</v>
+        <v>-0.602075527467326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0549715837340801</v>
+        <v>0.169503522090855</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289060061971902</v>
+        <v>0.000476291024312789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0311474204415297</v>
+        <v>-0.55734046368827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0956357347016847</v>
+        <v>0.169837552974577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.744999149033041</v>
+        <v>0.00121694943182821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.31790139489912</v>
+        <v>0.234673118112373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.148303079387408</v>
+        <v>0.0789037111124959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0332669493728725</v>
+        <v>0.00329738325299759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0596762719463216</v>
+        <v>-0.174949038533922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0642044082104449</v>
+        <v>0.0595025480053221</v>
       </c>
       <c r="D5" t="n">
-        <v>0.353758849259172</v>
+        <v>0.00366440921675236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.106493282520251</v>
+        <v>-0.479954391400017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0884184837758967</v>
+        <v>0.17626565343412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229842318650622</v>
+        <v>0.00704013623654306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0622585120246151</v>
+        <v>0.286905461119857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12719558367027</v>
+        <v>0.106750548878139</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625042228366599</v>
+        <v>0.00779931473306698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0634297773002455</v>
+        <v>-0.348581513762024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.124626289073672</v>
+        <v>0.132251102911638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.61133860492021</v>
+        <v>0.00905005458498218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.14291120913094</v>
+        <v>-0.496333194119866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0728712116569128</v>
+        <v>0.19036710221733</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0512429235624066</v>
+        <v>0.00981190732666517</v>
       </c>
     </row>
     <row r="10">
@@ -3329,520 +3329,520 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0965398245623364</v>
+        <v>-0.287230818951665</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17721652812719</v>
+        <v>0.119241647251046</v>
       </c>
       <c r="D11" t="n">
-        <v>0.586525006938194</v>
+        <v>0.0169067402688392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123297801680868</v>
+        <v>-0.27917997813089</v>
       </c>
       <c r="C12" t="n">
-        <v>0.499042584020178</v>
+        <v>0.117875750924727</v>
       </c>
       <c r="D12" t="n">
-        <v>0.805107228920817</v>
+        <v>0.0188122948661254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.235744777004451</v>
+        <v>0.360041644374649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.118636969202199</v>
+        <v>0.15845241440933</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0482681502307245</v>
+        <v>0.0241304652805417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.174949038533922</v>
+        <v>0.169147250037482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0595025480053221</v>
+        <v>0.077073796578098</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00366440921675236</v>
+        <v>0.0293369443776839</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0522972107292765</v>
+        <v>0.302891515893862</v>
       </c>
       <c r="C15" t="n">
-        <v>0.147308865714706</v>
+        <v>0.140194265835937</v>
       </c>
       <c r="D15" t="n">
-        <v>0.722948790023629</v>
+        <v>0.0319160985880687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.360041644374649</v>
+        <v>-0.218955243222192</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15845241440933</v>
+        <v>0.101392777451626</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0241304652805417</v>
+        <v>0.0319975152315241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.348581513762024</v>
+        <v>-0.31790139489912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.132251102911638</v>
+        <v>0.148303079387408</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00905005458498218</v>
+        <v>0.0332669493728725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.496333194119866</v>
+        <v>0.186087132856212</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19036710221733</v>
+        <v>0.0876782278268165</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00981190732666517</v>
+        <v>0.0350292966977362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0831121545879931</v>
+        <v>0.268891572262931</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0736664714669871</v>
+        <v>0.130924321292524</v>
       </c>
       <c r="D19" t="n">
-        <v>0.260570915222105</v>
+        <v>0.0412901527120799</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>0.302891515893862</v>
+        <v>-0.235744777004451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.140194265835937</v>
+        <v>0.118636969202199</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0319160985880687</v>
+        <v>0.0482681502307245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>0.186087132856212</v>
+        <v>-0.14291120913094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0876782278268165</v>
+        <v>0.0728712116569128</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0350292966977362</v>
+        <v>0.0512429235624066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0356821903496591</v>
+        <v>0.159888114677903</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0826075763540159</v>
+        <v>0.0851276050023476</v>
       </c>
       <c r="D22" t="n">
-        <v>0.666242092408865</v>
+        <v>0.0617993943402928</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0224274833090894</v>
+        <v>0.254539516158809</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0416383258100411</v>
+        <v>0.143230371823761</v>
       </c>
       <c r="D23" t="n">
-        <v>0.590740980749989</v>
+        <v>0.077058536138422</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.452260279241401</v>
+        <v>0.0621206469369208</v>
       </c>
       <c r="C24" t="n">
-        <v>0.747602427750495</v>
+        <v>0.0362046996552863</v>
       </c>
       <c r="D24" t="n">
-        <v>0.545896167747844</v>
+        <v>0.0877363481164776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.136121715707606</v>
+        <v>-0.121135745957147</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0895621605371341</v>
+        <v>0.0732338570013393</v>
       </c>
       <c r="D25" t="n">
-        <v>0.130118255423187</v>
+        <v>0.099669032741863</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>0.286905461119857</v>
+        <v>-0.0895277858559156</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106750548878139</v>
+        <v>0.0547775661507009</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00779931473306698</v>
+        <v>0.103742660306843</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0617849269481421</v>
+        <v>-0.192811870280596</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0532123587993905</v>
+        <v>0.124019558206457</v>
       </c>
       <c r="D27" t="n">
-        <v>0.246977857129285</v>
+        <v>0.121593219305976</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.0165442411977498</v>
+        <v>-0.136121715707606</v>
       </c>
       <c r="C28" t="n">
-        <v>0.031620700542837</v>
+        <v>0.0895621605371341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.601404995261886</v>
+        <v>0.130118255423187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.00857826422910747</v>
+        <v>-0.117366483416046</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0364767268143171</v>
+        <v>0.078646577115502</v>
       </c>
       <c r="D29" t="n">
-        <v>0.814315516644149</v>
+        <v>0.137181091498189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>0.169147250037482</v>
+        <v>-0.106493282520251</v>
       </c>
       <c r="C30" t="n">
-        <v>0.077073796578098</v>
+        <v>0.0884184837758967</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0293369443776839</v>
+        <v>0.229842318650622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0432028863288201</v>
+        <v>-0.0617849269481421</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0418513337923733</v>
+        <v>0.0532123587993905</v>
       </c>
       <c r="D31" t="n">
-        <v>0.303174827812619</v>
+        <v>0.246977857129285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.287230818951665</v>
+        <v>0.0831121545879931</v>
       </c>
       <c r="C32" t="n">
-        <v>0.119241647251046</v>
+        <v>0.0736664714669871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0169067402688392</v>
+        <v>0.260570915222105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.192811870280596</v>
+        <v>0.0584344688860832</v>
       </c>
       <c r="C33" t="n">
-        <v>0.124019558206457</v>
+        <v>0.0549715837340801</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121593219305976</v>
+        <v>0.289060061971902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0178912498734034</v>
+        <v>-0.201662629300875</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0594209969606176</v>
+        <v>0.191219495101605</v>
       </c>
       <c r="D34" t="n">
-        <v>0.763654772301064</v>
+        <v>0.292868227826358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.121135745957147</v>
+        <v>0.0432028863288201</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0732338570013393</v>
+        <v>0.0418513337923733</v>
       </c>
       <c r="D35" t="n">
-        <v>0.099669032741863</v>
+        <v>0.303174827812619</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.201662629300875</v>
+        <v>-0.190858704306424</v>
       </c>
       <c r="C36" t="n">
-        <v>0.191219495101605</v>
+        <v>0.191837728035002</v>
       </c>
       <c r="D36" t="n">
-        <v>0.292868227826358</v>
+        <v>0.320982743753802</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B37" t="n">
-        <v>0.254539516158809</v>
+        <v>0.0596762719463216</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143230371823761</v>
+        <v>0.0642044082104449</v>
       </c>
       <c r="D37" t="n">
-        <v>0.077058536138422</v>
+        <v>0.353758849259172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0097812404846281</v>
+        <v>-0.0530845843534817</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0284761673046972</v>
+        <v>0.0594718784610426</v>
       </c>
       <c r="D38" t="n">
-        <v>0.731589888385823</v>
+        <v>0.373138927127711</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268891572262931</v>
+        <v>0.0409746577603154</v>
       </c>
       <c r="C39" t="n">
-        <v>0.130924321292524</v>
+        <v>0.0466756027250884</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0412901527120799</v>
+        <v>0.38106765449282</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0409746577603154</v>
+        <v>-0.115651773460485</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0466756027250884</v>
+        <v>0.167032002920411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.38106765449282</v>
+        <v>0.489489746726798</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.190858704306424</v>
+        <v>-0.0939302859423215</v>
       </c>
       <c r="C41" t="n">
-        <v>0.191837728035002</v>
+        <v>0.149012616330912</v>
       </c>
       <c r="D41" t="n">
-        <v>0.320982743753802</v>
+        <v>0.529180800415131</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0326454651715515</v>
+        <v>0.0595043282634652</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122021597208587</v>
+        <v>0.0962531484196459</v>
       </c>
       <c r="D42" t="n">
-        <v>0.789328962093484</v>
+        <v>0.537139050669566</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.55734046368827</v>
+        <v>-0.452260279241401</v>
       </c>
       <c r="C43" t="n">
-        <v>0.169837552974577</v>
+        <v>0.747602427750495</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00121694943182821</v>
+        <v>0.545896167747844</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.000985190027174365</v>
+        <v>-0.0965398245623364</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0284008302607804</v>
+        <v>0.17721652812719</v>
       </c>
       <c r="D44" t="n">
-        <v>0.97236233537759</v>
+        <v>0.586525006938194</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0530845843534817</v>
+        <v>-0.0224274833090894</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0594718784610426</v>
+        <v>0.0416383258100411</v>
       </c>
       <c r="D45" t="n">
-        <v>0.373138927127711</v>
+        <v>0.590740980749989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.117366483416046</v>
+        <v>-0.0165442411977498</v>
       </c>
       <c r="C46" t="n">
-        <v>0.078646577115502</v>
+        <v>0.031620700542837</v>
       </c>
       <c r="D46" t="n">
-        <v>0.137181091498189</v>
+        <v>0.601404995261886</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>0.234673118112373</v>
+        <v>-0.0634297773002455</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0789037111124959</v>
+        <v>0.124626289073672</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00329738325299759</v>
+        <v>0.61133860492021</v>
       </c>
     </row>
     <row r="48">
@@ -3861,198 +3861,198 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.602075527467326</v>
+        <v>0.0622585120246151</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169503522090855</v>
+        <v>0.12719558367027</v>
       </c>
       <c r="D49" t="n">
-        <v>0.000476291024312789</v>
+        <v>0.625042228366599</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0895277858559156</v>
+        <v>-0.0923698126332445</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0547775661507009</v>
+        <v>0.193316796349365</v>
       </c>
       <c r="D50" t="n">
-        <v>0.103742660306843</v>
+        <v>0.633300554218133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.27917997813089</v>
+        <v>-0.0356821903496591</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117875750924727</v>
+        <v>0.0826075763540159</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0188122948661254</v>
+        <v>0.666242092408865</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0595043282634652</v>
+        <v>-0.0522972107292765</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0962531484196459</v>
+        <v>0.147308865714706</v>
       </c>
       <c r="D52" t="n">
-        <v>0.537139050669566</v>
+        <v>0.722948790023629</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0117315553462779</v>
+        <v>0.0097812404846281</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0387425251832737</v>
+        <v>0.0284761673046972</v>
       </c>
       <c r="D53" t="n">
-        <v>0.762349161729691</v>
+        <v>0.731589888385823</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0621206469369208</v>
+        <v>0.122174343284234</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0362046996552863</v>
+        <v>0.359398962739981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0877363481164776</v>
+        <v>0.734256136117598</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.479954391400017</v>
+        <v>-0.0311474204415297</v>
       </c>
       <c r="C55" t="n">
-        <v>0.17626565343412</v>
+        <v>0.0956357347016847</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00704013623654306</v>
+        <v>0.744999149033041</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0923698126332445</v>
+        <v>0.0117315553462779</v>
       </c>
       <c r="C56" t="n">
-        <v>0.193316796349365</v>
+        <v>0.0387425251832737</v>
       </c>
       <c r="D56" t="n">
-        <v>0.633300554218133</v>
+        <v>0.762349161729691</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.0939302859423215</v>
+        <v>-0.0178912498734034</v>
       </c>
       <c r="C57" t="n">
-        <v>0.149012616330912</v>
+        <v>0.0594209969606176</v>
       </c>
       <c r="D57" t="n">
-        <v>0.529180800415131</v>
+        <v>0.763654772301064</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.0142299405378491</v>
+        <v>0.0326454651715515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0786109586496748</v>
+        <v>0.122021597208587</v>
       </c>
       <c r="D58" t="n">
-        <v>0.856536421347404</v>
+        <v>0.789328962093484</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B59" t="n">
-        <v>0.159888114677903</v>
+        <v>0.123297801680868</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0851276050023476</v>
+        <v>0.499042584020178</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0617993943402928</v>
+        <v>0.805107228920817</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B60" t="n">
-        <v>0.122174343284234</v>
+        <v>-0.00857826422910747</v>
       </c>
       <c r="C60" t="n">
-        <v>0.359398962739981</v>
+        <v>0.0364767268143171</v>
       </c>
       <c r="D60" t="n">
-        <v>0.734256136117598</v>
+        <v>0.814315516644149</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.115651773460485</v>
+        <v>-0.0142299405378491</v>
       </c>
       <c r="C61" t="n">
-        <v>0.167032002920411</v>
+        <v>0.0786109586496748</v>
       </c>
       <c r="D61" t="n">
-        <v>0.489489746726798</v>
+        <v>0.856536421347404</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.218955243222192</v>
+        <v>-0.000985190027174365</v>
       </c>
       <c r="C62" t="n">
-        <v>0.101392777451626</v>
+        <v>0.0284008302607804</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0319975152315241</v>
+        <v>0.97236233537759</v>
       </c>
     </row>
   </sheetData>

--- a/serumGLMresults.xlsx
+++ b/serumGLMresults.xlsx
@@ -3206,13 +3206,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.602075527467326</v>
+        <v>-0.691838455003789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.169503522090855</v>
+        <v>0.194516505688716</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000476291024312789</v>
+        <v>0.000468329239550752</v>
       </c>
     </row>
     <row r="3">
@@ -3220,433 +3220,433 @@
         <v>57</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.55734046368827</v>
+        <v>-0.688278802568608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.169837552974577</v>
+        <v>0.209394038805942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00121694943182821</v>
+        <v>0.0011950549170368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234673118112373</v>
+        <v>-0.198809609830301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0789037111124959</v>
+        <v>0.0658933258445405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00329738325299759</v>
+        <v>0.00288153902214742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.174949038533922</v>
+        <v>0.219642902649956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0595025480053221</v>
+        <v>0.0742625541626669</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00366440921675236</v>
+        <v>0.00347137475324588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.479954391400017</v>
+        <v>0.276722098370389</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17626565343412</v>
+        <v>0.102252705759535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00704013623654306</v>
+        <v>0.00738961987795225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B7" t="n">
-        <v>0.286905461119857</v>
+        <v>-0.152709597776666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106750548878139</v>
+        <v>0.0582864921926091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00779931473306698</v>
+        <v>0.0094646460574149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.348581513762024</v>
+        <v>0.351233338027981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.132251102911638</v>
+        <v>0.144526061363702</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00905005458498218</v>
+        <v>0.0159666521463463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.496333194119866</v>
+        <v>0.313220647535934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19036710221733</v>
+        <v>0.131330545607677</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00981190732666517</v>
+        <v>0.0180094880024389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1366725174234</v>
+        <v>-0.49199683653037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0538400930460858</v>
+        <v>0.2078105808423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0118908309401078</v>
+        <v>0.0188568542841443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.287230818951665</v>
+        <v>-0.425360918046032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119241647251046</v>
+        <v>0.181321178867106</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0169067402688392</v>
+        <v>0.0199554514070243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.27917997813089</v>
+        <v>0.14397174446087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.117875750924727</v>
+        <v>0.0638822661908625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0188122948661254</v>
+        <v>0.0252941585606479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.360041644374649</v>
+        <v>0.179789633965459</v>
       </c>
       <c r="C13" t="n">
-        <v>0.15845241440933</v>
+        <v>0.0862036760600512</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0241304652805417</v>
+        <v>0.0382738228912616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>0.169147250037482</v>
+        <v>0.299328275242705</v>
       </c>
       <c r="C14" t="n">
-        <v>0.077073796578098</v>
+        <v>0.14575670628992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0293369443776839</v>
+        <v>0.0413075772434953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302891515893862</v>
+        <v>-0.233386176139536</v>
       </c>
       <c r="C15" t="n">
-        <v>0.140194265835937</v>
+        <v>0.117811471496236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0319160985880687</v>
+        <v>0.0489532243496539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.218955243222192</v>
+        <v>0.157927904535272</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101392777451626</v>
+        <v>0.0805967329264587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0319975152315241</v>
+        <v>0.0514388599577168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.31790139489912</v>
+        <v>-0.204958980772474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.148303079387408</v>
+        <v>0.108057435959391</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0332669493728725</v>
+        <v>0.0592936536708379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>0.186087132856212</v>
+        <v>-0.140633912787392</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0876782278268165</v>
+        <v>0.0747168204192276</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0350292966977362</v>
+        <v>0.0612503399000448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268891572262931</v>
+        <v>-0.208420866315108</v>
       </c>
       <c r="C19" t="n">
-        <v>0.130924321292524</v>
+        <v>0.110739610963919</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0412901527120799</v>
+        <v>0.0612701391509304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.235744777004451</v>
+        <v>0.217220889405084</v>
       </c>
       <c r="C20" t="n">
-        <v>0.118636969202199</v>
+        <v>0.118409265408233</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0482681502307245</v>
+        <v>0.0680591852441725</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.14291120913094</v>
+        <v>0.0555467897199651</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0728712116569128</v>
+        <v>0.032925641298587</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0512429235624066</v>
+        <v>0.0931474315273997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B22" t="n">
-        <v>0.159888114677903</v>
+        <v>-0.199486928228835</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0851276050023476</v>
+        <v>0.118615686222656</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0617993943402928</v>
+        <v>0.0941621234559425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>0.254539516158809</v>
+        <v>-0.206654187345607</v>
       </c>
       <c r="C23" t="n">
-        <v>0.143230371823761</v>
+        <v>0.130941994474684</v>
       </c>
       <c r="D23" t="n">
-        <v>0.077058536138422</v>
+        <v>0.116089453038108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0621206469369208</v>
+        <v>-0.220760353597272</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0362046996552863</v>
+        <v>0.140873716139524</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0877363481164776</v>
+        <v>0.118668995316122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.121135745957147</v>
+        <v>0.0658511086013744</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0732338570013393</v>
+        <v>0.0422393347814715</v>
       </c>
       <c r="D25" t="n">
-        <v>0.099669032741863</v>
+        <v>0.120569564792907</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0895277858559156</v>
+        <v>-0.126216100361578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0547775661507009</v>
+        <v>0.0856070826967534</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103742660306843</v>
+        <v>0.14194780902834</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.192811870280596</v>
+        <v>0.0776578634014232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124019558206457</v>
+        <v>0.0530724978121747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121593219305976</v>
+        <v>0.144963395085677</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.136121715707606</v>
+        <v>-0.176350277061088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0895621605371341</v>
+        <v>0.127482485601455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.130118255423187</v>
+        <v>0.168098398170875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.117366483416046</v>
+        <v>-0.0954296654987247</v>
       </c>
       <c r="C29" t="n">
-        <v>0.078646577115502</v>
+        <v>0.0694144460419465</v>
       </c>
       <c r="D29" t="n">
-        <v>0.137181091498189</v>
+        <v>0.170729956937785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.106493282520251</v>
+        <v>-0.0853138818978876</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0884184837758967</v>
+        <v>0.0720230209333619</v>
       </c>
       <c r="D30" t="n">
-        <v>0.229842318650622</v>
+        <v>0.237599597322894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0617849269481421</v>
+        <v>-0.0639929102874237</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0532123587993905</v>
+        <v>0.0553433008430241</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246977857129285</v>
+        <v>0.248934993873235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0831121545879931</v>
+        <v>0.140546078354367</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0736664714669871</v>
+        <v>0.133229860361588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.260570915222105</v>
+        <v>0.292730908485387</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0584344688860832</v>
+        <v>0.0691486522349583</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0549715837340801</v>
+        <v>0.0687291133332728</v>
       </c>
       <c r="D33" t="n">
-        <v>0.289060061971902</v>
+        <v>0.315575076638</v>
       </c>
     </row>
     <row r="34">
@@ -3654,41 +3654,41 @@
         <v>59</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.201662629300875</v>
+        <v>-0.203258907755645</v>
       </c>
       <c r="C34" t="n">
-        <v>0.191219495101605</v>
+        <v>0.202195125956479</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292868227826358</v>
+        <v>0.31597974964329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0432028863288201</v>
+        <v>0.0376346585039095</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0418513337923733</v>
+        <v>0.0427680357694012</v>
       </c>
       <c r="D35" t="n">
-        <v>0.303174827812619</v>
+        <v>0.379925551565568</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.190858704306424</v>
+        <v>-0.0443758341054312</v>
       </c>
       <c r="C36" t="n">
-        <v>0.191837728035002</v>
+        <v>0.0516974569583053</v>
       </c>
       <c r="D36" t="n">
-        <v>0.320982743753802</v>
+        <v>0.391707546356022</v>
       </c>
     </row>
     <row r="37">
@@ -3696,307 +3696,307 @@
         <v>25</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0596762719463216</v>
+        <v>0.0468254434360003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0642044082104449</v>
+        <v>0.0585524589900422</v>
       </c>
       <c r="D37" t="n">
-        <v>0.353758849259172</v>
+        <v>0.42481840984895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.0530845843534817</v>
+        <v>0.0294555322014405</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0594718784610426</v>
+        <v>0.0380517846283631</v>
       </c>
       <c r="D38" t="n">
-        <v>0.373138927127711</v>
+        <v>0.439786701368981</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0409746577603154</v>
+        <v>-0.0499041348588734</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0466756027250884</v>
+        <v>0.0807056836529769</v>
       </c>
       <c r="D39" t="n">
-        <v>0.38106765449282</v>
+        <v>0.537046537664045</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.115651773460485</v>
+        <v>-0.459473288660406</v>
       </c>
       <c r="C40" t="n">
-        <v>0.167032002920411</v>
+        <v>0.759246068924575</v>
       </c>
       <c r="D40" t="n">
-        <v>0.489489746726798</v>
+        <v>0.545748379009265</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0939302859423215</v>
+        <v>-0.0483155888811328</v>
       </c>
       <c r="C41" t="n">
-        <v>0.149012616330912</v>
+        <v>0.0798942410753429</v>
       </c>
       <c r="D41" t="n">
-        <v>0.529180800415131</v>
+        <v>0.546030963815106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0595043282634652</v>
+        <v>-0.0357669707594655</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0962531484196459</v>
+        <v>0.0597426343594515</v>
       </c>
       <c r="D42" t="n">
-        <v>0.537139050669566</v>
+        <v>0.550057589273158</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.452260279241401</v>
+        <v>0.0155299624715321</v>
       </c>
       <c r="C43" t="n">
-        <v>0.747602427750495</v>
+        <v>0.0267187092488394</v>
       </c>
       <c r="D43" t="n">
-        <v>0.545896167747844</v>
+        <v>0.561730426135956</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0965398245623364</v>
+        <v>0.0579218801885733</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17721652812719</v>
+        <v>0.102238021504664</v>
       </c>
       <c r="D44" t="n">
-        <v>0.586525006938194</v>
+        <v>0.571659121815335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0224274833090894</v>
+        <v>-0.0160215766772432</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0416383258100411</v>
+        <v>0.0296218239377531</v>
       </c>
       <c r="D45" t="n">
-        <v>0.590740980749989</v>
+        <v>0.589195598983586</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0165442411977498</v>
+        <v>-0.0721392408448677</v>
       </c>
       <c r="C46" t="n">
-        <v>0.031620700542837</v>
+        <v>0.159663952604866</v>
       </c>
       <c r="D46" t="n">
-        <v>0.601404995261886</v>
+        <v>0.651886394072855</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0634297773002455</v>
+        <v>-0.0781707105561362</v>
       </c>
       <c r="C47" t="n">
-        <v>0.124626289073672</v>
+        <v>0.178208925489436</v>
       </c>
       <c r="D47" t="n">
-        <v>0.61133860492021</v>
+        <v>0.661388854594218</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0509692839141365</v>
+        <v>0.0301029810111223</v>
       </c>
       <c r="C48" t="n">
-        <v>0.101733500186103</v>
+        <v>0.0705350130345723</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6169137965316</v>
+        <v>0.669995840964794</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0622585120246151</v>
+        <v>-0.0561175872875607</v>
       </c>
       <c r="C49" t="n">
-        <v>0.12719558367027</v>
+        <v>0.156978669085384</v>
       </c>
       <c r="D49" t="n">
-        <v>0.625042228366599</v>
+        <v>0.72110350848306</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0923698126332445</v>
+        <v>-0.0168067038462878</v>
       </c>
       <c r="C50" t="n">
-        <v>0.193316796349365</v>
+        <v>0.0489132623796479</v>
       </c>
       <c r="D50" t="n">
-        <v>0.633300554218133</v>
+        <v>0.731504626871854</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.0356821903496591</v>
+        <v>-0.0721499709674637</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0826075763540159</v>
+        <v>0.216086972655211</v>
       </c>
       <c r="D51" t="n">
-        <v>0.666242092408865</v>
+        <v>0.738808239323705</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0522972107292765</v>
+        <v>-0.0788951880973298</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147308865714706</v>
+        <v>0.23767937214994</v>
       </c>
       <c r="D52" t="n">
-        <v>0.722948790023629</v>
+        <v>0.740280764012294</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0097812404846281</v>
+        <v>0.0356203942306938</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0284761673046972</v>
+        <v>0.10996450829388</v>
       </c>
       <c r="D53" t="n">
-        <v>0.731589888385823</v>
+        <v>0.746330656036304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B54" t="n">
-        <v>0.122174343284234</v>
+        <v>-0.0111804444459383</v>
       </c>
       <c r="C54" t="n">
-        <v>0.359398962739981</v>
+        <v>0.0544325140844583</v>
       </c>
       <c r="D54" t="n">
-        <v>0.734256136117598</v>
+        <v>0.837467402458733</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0311474204415297</v>
+        <v>-0.0351653766545463</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0956357347016847</v>
+        <v>0.17320047010788</v>
       </c>
       <c r="D55" t="n">
-        <v>0.744999149033041</v>
+        <v>0.839314776311989</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0117315553462779</v>
+        <v>-0.00391671676391732</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0387425251832737</v>
+        <v>0.0330047617914239</v>
       </c>
       <c r="D56" t="n">
-        <v>0.762349161729691</v>
+        <v>0.905654318737404</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.0178912498734034</v>
+        <v>0.0386758322737726</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0594209969606176</v>
+        <v>0.333634264532186</v>
       </c>
       <c r="D57" t="n">
-        <v>0.763654772301064</v>
+        <v>0.907829425286152</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0326454651715515</v>
+        <v>-0.0107928168759957</v>
       </c>
       <c r="C58" t="n">
-        <v>0.122021597208587</v>
+        <v>0.097864287738307</v>
       </c>
       <c r="D58" t="n">
-        <v>0.789328962093484</v>
+        <v>0.912294571567998</v>
       </c>
     </row>
     <row r="59">
@@ -4004,55 +4004,55 @@
         <v>24</v>
       </c>
       <c r="B59" t="n">
-        <v>0.123297801680868</v>
+        <v>0.0462609728245656</v>
       </c>
       <c r="C59" t="n">
-        <v>0.499042584020178</v>
+        <v>0.471473006265237</v>
       </c>
       <c r="D59" t="n">
-        <v>0.805107228920817</v>
+        <v>0.921934714143385</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.00857826422910747</v>
+        <v>0.00187667703644513</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0364767268143171</v>
+        <v>0.0256357162100181</v>
       </c>
       <c r="D60" t="n">
-        <v>0.814315516644149</v>
+        <v>0.941715336565212</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0142299405378491</v>
+        <v>-0.0039636047706767</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0786109586496748</v>
+        <v>0.0916083632680978</v>
       </c>
       <c r="D61" t="n">
-        <v>0.856536421347404</v>
+        <v>0.965531771996875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.000985190027174365</v>
+        <v>0.00524735393429005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0284008302607804</v>
+        <v>0.19611940722432</v>
       </c>
       <c r="D62" t="n">
-        <v>0.97236233537759</v>
+        <v>0.97868096166016</v>
       </c>
     </row>
   </sheetData>
